--- a/additional-ro-crate-metadata.xlsx
+++ b/additional-ro-crate-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/source/github/Language-Research-Technology/corpus-tools-accented-australian-english/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\wolfx\corpus-tools-accented-australian-english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2C502C-41FB-0E4F-B77D-8F6D2719D581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B750EB-4706-48B5-B5C0-550071136376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="720" windowWidth="12912" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="7" r:id="rId1"/>
@@ -2435,9 +2435,6 @@
     <t>.Filename</t>
   </si>
   <si>
-    <t>isType_Annotatiion</t>
-  </si>
-  <si>
     <t>isRef_speaker</t>
   </si>
   <si>
@@ -2499,6 +2496,9 @@
   </si>
   <si>
     <t>Audio_Anonymised</t>
+  </si>
+  <si>
+    <t>isType_Annotation</t>
   </si>
 </sst>
 </file>
@@ -3696,54 +3696,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="67.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="67.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.296875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="48.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="57.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.1640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="40.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="57.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.19921875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="81.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.1640625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="81.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.19921875" style="3" customWidth="1"/>
+    <col min="32" max="32" width="20.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.69921875" style="3" customWidth="1"/>
     <col min="36" max="36" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="255.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="255.796875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="69" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>776</v>
@@ -3752,7 +3752,7 @@
         <v>777</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>778</v>
@@ -3761,22 +3761,22 @@
         <v>779</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>212</v>
@@ -3818,13 +3818,13 @@
         <v>223</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AB1" s="9" t="s">
         <v>224</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>225</v>
@@ -3860,7 +3860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A33" si="0">SUBSTITUTE(_xlfn.CONCAT("#",B2)," ","_")</f>
         <v>#Rosa</v>
@@ -3979,10 +3979,10 @@
         <v>249</v>
       </c>
       <c r="AN2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>#Xiaobo</v>
@@ -4101,10 +4101,10 @@
         <v>261</v>
       </c>
       <c r="AN3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>#Liu</v>
@@ -4221,10 +4221,10 @@
         <v>270</v>
       </c>
       <c r="AN4" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>#Lanfen</v>
@@ -4343,10 +4343,10 @@
         <v>277</v>
       </c>
       <c r="AN5" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>#Valerie</v>
@@ -4465,10 +4465,10 @@
         <v>291</v>
       </c>
       <c r="AN6" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>#Melania_Chekhova</v>
@@ -4585,10 +4585,10 @@
         <v>300</v>
       </c>
       <c r="AN7" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>#Magdalina</v>
@@ -4707,10 +4707,10 @@
         <v>317</v>
       </c>
       <c r="AN8" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>#Demid</v>
@@ -4829,10 +4829,10 @@
         <v>327</v>
       </c>
       <c r="AN9" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>#Ingrid</v>
@@ -4951,10 +4951,10 @@
         <v>339</v>
       </c>
       <c r="AN10" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>#Alina</v>
@@ -5073,10 +5073,10 @@
         <v>350</v>
       </c>
       <c r="AN11" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>#Elena</v>
@@ -5193,10 +5193,10 @@
         <v>359</v>
       </c>
       <c r="AN12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>#Rita</v>
@@ -5315,10 +5315,10 @@
         <v>369</v>
       </c>
       <c r="AN13" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" ht="60" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>#Leonid</v>
@@ -5435,10 +5435,10 @@
         <v>380</v>
       </c>
       <c r="AN14" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>#Mila_Morozora</v>
@@ -5555,10 +5555,10 @@
       </c>
       <c r="AM15" s="13"/>
       <c r="AN15" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>#William</v>
@@ -5675,10 +5675,10 @@
         <v>395</v>
       </c>
       <c r="AN16" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" ht="60" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>#Nadine</v>
@@ -5797,10 +5797,10 @@
         <v>380</v>
       </c>
       <c r="AN17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>#Markov</v>
@@ -5919,10 +5919,10 @@
         <v>414</v>
       </c>
       <c r="AN18" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>#Mingzhu</v>
@@ -6041,10 +6041,10 @@
         <v>425</v>
       </c>
       <c r="AN19" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>#Mischa</v>
@@ -6163,10 +6163,10 @@
         <v>436</v>
       </c>
       <c r="AN20" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>#Nikolai_Rykov</v>
@@ -6283,10 +6283,10 @@
       </c>
       <c r="AM21" s="13"/>
       <c r="AN21" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>#Sergey_Konoplev</v>
@@ -6403,10 +6403,10 @@
       </c>
       <c r="AM22" s="13"/>
       <c r="AN22" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>#Yongrui</v>
@@ -6519,10 +6519,10 @@
         <v>3</v>
       </c>
       <c r="AN23" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>#Chao</v>
@@ -6641,10 +6641,10 @@
         <v>464</v>
       </c>
       <c r="AN24" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>#Ivana</v>
@@ -6761,10 +6761,10 @@
         <v>476</v>
       </c>
       <c r="AN25" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>#Stefan</v>
@@ -6881,10 +6881,10 @@
         <v>484</v>
       </c>
       <c r="AN26" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>#Malvina</v>
@@ -7001,10 +7001,10 @@
         <v>490</v>
       </c>
       <c r="AN27" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>#Natasha</v>
@@ -7123,10 +7123,10 @@
         <v>497</v>
       </c>
       <c r="AN28" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>#Yunru</v>
@@ -7233,10 +7233,10 @@
         <v>3</v>
       </c>
       <c r="AN29" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>#Liling</v>
@@ -7355,10 +7355,10 @@
         <v>511</v>
       </c>
       <c r="AN30" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>#Stas</v>
@@ -7477,10 +7477,10 @@
         <v>519</v>
       </c>
       <c r="AN31" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>#Lidia</v>
@@ -7597,10 +7597,10 @@
         <v>524</v>
       </c>
       <c r="AN32" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>#Mikhaila</v>
@@ -7719,10 +7719,10 @@
         <v>531</v>
       </c>
       <c r="AN33" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" ref="A34:A65" si="4">SUBSTITUTE(_xlfn.CONCAT("#",B34)," ","_")</f>
         <v>#Slava</v>
@@ -7838,10 +7838,10 @@
         <v>541</v>
       </c>
       <c r="AN34" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="4"/>
         <v>#Karina</v>
@@ -7960,10 +7960,10 @@
         <v>552</v>
       </c>
       <c r="AN35" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="4"/>
         <v>#Yana</v>
@@ -8080,10 +8080,10 @@
         <v>561</v>
       </c>
       <c r="AN36" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="4"/>
         <v>#Jennifer</v>
@@ -8202,10 +8202,10 @@
         <v>395</v>
       </c>
       <c r="AN37" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="4"/>
         <v>#Xiulan</v>
@@ -8324,10 +8324,10 @@
         <v>578</v>
       </c>
       <c r="AN38" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="4"/>
         <v>#Li_Rong</v>
@@ -8446,10 +8446,10 @@
         <v>585</v>
       </c>
       <c r="AN39" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="4"/>
         <v>#Daiyu</v>
@@ -8565,10 +8565,10 @@
         <v>589</v>
       </c>
       <c r="AN40" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="4"/>
         <v>#Victoria</v>
@@ -8685,10 +8685,10 @@
         <v>594</v>
       </c>
       <c r="AN41" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="4"/>
         <v>#Adrik</v>
@@ -8807,10 +8807,10 @@
         <v>600</v>
       </c>
       <c r="AN42" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="4"/>
         <v>#Yin</v>
@@ -8929,10 +8929,10 @@
         <v>606</v>
       </c>
       <c r="AN43" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="4"/>
         <v>#Mei</v>
@@ -9049,10 +9049,10 @@
         <v>612</v>
       </c>
       <c r="AN44" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="4"/>
         <v>#Carrie</v>
@@ -9169,10 +9169,10 @@
         <v>618</v>
       </c>
       <c r="AN45" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="4"/>
         <v>#Lawrence</v>
@@ -9288,10 +9288,10 @@
         <v>618</v>
       </c>
       <c r="AN46" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="4"/>
         <v>#Yanyu</v>
@@ -9410,10 +9410,10 @@
         <v>626</v>
       </c>
       <c r="AN47" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="4"/>
         <v>#Ruby</v>
@@ -9532,10 +9532,10 @@
         <v>632</v>
       </c>
       <c r="AN48" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="4"/>
         <v>#Nikola</v>
@@ -9654,10 +9654,10 @@
         <v>642</v>
       </c>
       <c r="AN49" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="4"/>
         <v>#Shirong</v>
@@ -9776,10 +9776,10 @@
         <v>648</v>
       </c>
       <c r="AN50" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="4"/>
         <v>#Anton</v>
@@ -9896,10 +9896,10 @@
         <v>656</v>
       </c>
       <c r="AN51" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" ht="60" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="4"/>
         <v>#Jia</v>
@@ -10015,10 +10015,10 @@
         <v>660</v>
       </c>
       <c r="AN52" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" ht="60" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="69" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="4"/>
         <v>#Suyin</v>
@@ -10136,10 +10136,10 @@
         <v>669</v>
       </c>
       <c r="AN53" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="4"/>
         <v>#Stepan</v>
@@ -10258,10 +10258,10 @@
         <v>674</v>
       </c>
       <c r="AN54" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="4"/>
         <v>#Bolin</v>
@@ -10374,10 +10374,10 @@
         <v>4</v>
       </c>
       <c r="AN55" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="4"/>
         <v>#Andrei</v>
@@ -10493,10 +10493,10 @@
         <v>686</v>
       </c>
       <c r="AN56" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="4"/>
         <v>#Yvonne</v>
@@ -10613,10 +10613,10 @@
         <v>697</v>
       </c>
       <c r="AN57" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="4"/>
         <v>#Carl</v>
@@ -10735,10 +10735,10 @@
         <v>706</v>
       </c>
       <c r="AN58" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="4"/>
         <v>#Kelsey_Lin</v>
@@ -10855,10 +10855,10 @@
         <v>715</v>
       </c>
       <c r="AN59" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="4"/>
         <v>#Colin</v>
@@ -10975,10 +10975,10 @@
         <v>697</v>
       </c>
       <c r="AN60" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="4"/>
         <v>#Alenka</v>
@@ -11097,10 +11097,10 @@
         <v>728</v>
       </c>
       <c r="AN61" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="4"/>
         <v>#Anastasia_Borisova</v>
@@ -11215,10 +11215,10 @@
       </c>
       <c r="AM62" s="13"/>
       <c r="AN62" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="4"/>
         <v>#Stella_Xia</v>
@@ -11337,10 +11337,10 @@
         <v>738</v>
       </c>
       <c r="AN63" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="4"/>
         <v>#Tanya_Yan</v>
@@ -11459,10 +11459,10 @@
         <v>744</v>
       </c>
       <c r="AN64" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="4"/>
         <v>#Joyce_Ge</v>
@@ -11581,10 +11581,10 @@
         <v>752</v>
       </c>
       <c r="AN65" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="66" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A68" si="7">SUBSTITUTE(_xlfn.CONCAT("#",B66)," ","_")</f>
         <v>#Ning</v>
@@ -11703,10 +11703,10 @@
         <v>762</v>
       </c>
       <c r="AN66" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="67" spans="1:40" ht="30" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="7"/>
         <v>#Bojing</v>
@@ -11823,10 +11823,10 @@
         <v>766</v>
       </c>
       <c r="AN67" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="68" spans="1:40" ht="60" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="7"/>
         <v>#Hao</v>
@@ -11942,15 +11942,15 @@
         <v>775</v>
       </c>
       <c r="AN68" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="R70" s="43"/>
@@ -11963,72 +11963,72 @@
       <c r="Y70" s="43"/>
       <c r="Z70" s="43"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:36" x14ac:dyDescent="0.3">
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:36" x14ac:dyDescent="0.3">
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:36" x14ac:dyDescent="0.3">
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="85" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -12065,7 +12065,7 @@
       <c r="AI85" s="4"/>
       <c r="AJ85" s="4"/>
     </row>
-    <row r="89" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -12102,7 +12102,7 @@
       <c r="AI89" s="4"/>
       <c r="AJ89" s="4"/>
     </row>
-    <row r="95" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
@@ -12112,7 +12112,7 @@
       <c r="AI95" s="4"/>
       <c r="AJ95" s="4"/>
     </row>
-    <row r="97" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -12148,7 +12148,7 @@
       <c r="AI97" s="4"/>
       <c r="AJ97" s="4"/>
     </row>
-    <row r="99" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -12185,7 +12185,7 @@
       <c r="AI99" s="4"/>
       <c r="AJ99" s="39"/>
     </row>
-    <row r="100" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -12222,7 +12222,7 @@
       <c r="AI100" s="4"/>
       <c r="AJ100" s="39"/>
     </row>
-    <row r="101" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -12259,7 +12259,7 @@
       <c r="AI101" s="4"/>
       <c r="AJ101" s="4"/>
     </row>
-    <row r="105" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -12296,7 +12296,7 @@
       <c r="AI105" s="4"/>
       <c r="AJ105" s="4"/>
     </row>
-    <row r="106" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -12333,7 +12333,7 @@
       <c r="AI106" s="4"/>
       <c r="AJ106" s="4"/>
     </row>
-    <row r="107" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AC107" s="4"/>
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
@@ -12343,7 +12343,7 @@
       <c r="AI107" s="4"/>
       <c r="AJ107" s="4"/>
     </row>
-    <row r="109" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -12380,7 +12380,7 @@
       <c r="AI109" s="4"/>
       <c r="AJ109" s="4"/>
     </row>
-    <row r="110" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -12417,16 +12417,16 @@
       <c r="AI110" s="4"/>
       <c r="AJ110" s="4"/>
     </row>
-    <row r="111" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C111" s="4"/>
     </row>
-    <row r="115" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C116" s="4"/>
     </row>
-    <row r="127" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C127" s="45"/>
       <c r="D127" s="18"/>
       <c r="E127" s="16"/>
@@ -12462,7 +12462,7 @@
       <c r="AI127" s="16"/>
       <c r="AJ127" s="11"/>
     </row>
-    <row r="128" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C128" s="45"/>
       <c r="D128" s="18"/>
       <c r="E128" s="17"/>
@@ -12498,7 +12498,7 @@
       <c r="AI128" s="17"/>
       <c r="AJ128" s="11"/>
     </row>
-    <row r="129" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C129" s="45"/>
       <c r="D129" s="15"/>
       <c r="E129" s="17"/>
@@ -12534,7 +12534,7 @@
       <c r="AI129" s="17"/>
       <c r="AJ129" s="11"/>
     </row>
-    <row r="130" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C130" s="45"/>
       <c r="D130" s="18"/>
       <c r="E130" s="11"/>
@@ -12570,7 +12570,7 @@
       <c r="AI130" s="27"/>
       <c r="AJ130" s="11"/>
     </row>
-    <row r="131" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C131" s="45"/>
       <c r="D131" s="18"/>
       <c r="E131" s="16"/>
@@ -12606,7 +12606,7 @@
       <c r="AI131" s="11"/>
       <c r="AJ131" s="11"/>
     </row>
-    <row r="132" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C132" s="45"/>
       <c r="D132" s="18"/>
       <c r="E132" s="17"/>
@@ -12642,7 +12642,7 @@
       <c r="AI132" s="11"/>
       <c r="AJ132" s="11"/>
     </row>
-    <row r="133" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C133" s="45"/>
       <c r="D133" s="15"/>
       <c r="E133" s="11"/>
@@ -12678,7 +12678,7 @@
       <c r="AI133" s="11"/>
       <c r="AJ133" s="11"/>
     </row>
-    <row r="134" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C134" s="46"/>
       <c r="D134" s="18"/>
       <c r="E134" s="17"/>
@@ -12714,7 +12714,7 @@
       <c r="AI134" s="17"/>
       <c r="AJ134" s="11"/>
     </row>
-    <row r="135" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C135" s="45"/>
       <c r="D135" s="18"/>
       <c r="E135" s="17"/>
@@ -12750,7 +12750,7 @@
       <c r="AI135" s="17"/>
       <c r="AJ135" s="11"/>
     </row>
-    <row r="136" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C136" s="45"/>
       <c r="D136" s="18"/>
       <c r="E136" s="16"/>
@@ -12786,7 +12786,7 @@
       <c r="AI136" s="11"/>
       <c r="AJ136" s="11"/>
     </row>
-    <row r="137" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C137" s="45"/>
       <c r="D137" s="15"/>
       <c r="E137" s="11"/>
@@ -12822,7 +12822,7 @@
       <c r="AI137" s="11"/>
       <c r="AJ137" s="11"/>
     </row>
-    <row r="138" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C138" s="46"/>
       <c r="D138" s="15"/>
       <c r="E138" s="17"/>
@@ -12858,7 +12858,7 @@
       <c r="AI138" s="11"/>
       <c r="AJ138" s="11"/>
     </row>
-    <row r="139" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C139" s="14"/>
       <c r="D139" s="15"/>
       <c r="E139" s="17"/>
@@ -12894,7 +12894,7 @@
       <c r="AI139" s="11"/>
       <c r="AJ139" s="11"/>
     </row>
-    <row r="140" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C140" s="46"/>
       <c r="D140" s="15"/>
       <c r="E140" s="17"/>
@@ -12930,7 +12930,7 @@
       <c r="AI140" s="16"/>
       <c r="AJ140" s="11"/>
     </row>
-    <row r="141" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C141" s="45"/>
       <c r="D141" s="18"/>
       <c r="E141" s="17"/>
@@ -12966,7 +12966,7 @@
       <c r="AI141" s="11"/>
       <c r="AJ141" s="11"/>
     </row>
-    <row r="142" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C142" s="46"/>
       <c r="D142" s="18"/>
       <c r="E142" s="17"/>
@@ -13002,7 +13002,7 @@
       <c r="AI142" s="17"/>
       <c r="AJ142" s="11"/>
     </row>
-    <row r="143" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C143" s="46"/>
       <c r="D143" s="18"/>
       <c r="E143" s="17"/>
@@ -13038,7 +13038,7 @@
       <c r="AI143" s="11"/>
       <c r="AJ143" s="11"/>
     </row>
-    <row r="144" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C144" s="45"/>
       <c r="D144" s="18"/>
       <c r="E144" s="17"/>
@@ -13074,7 +13074,7 @@
       <c r="AI144" s="11"/>
       <c r="AJ144" s="11"/>
     </row>
-    <row r="145" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C145" s="46"/>
       <c r="D145" s="15"/>
       <c r="E145" s="17"/>
@@ -13110,7 +13110,7 @@
       <c r="AI145" s="17"/>
       <c r="AJ145" s="11"/>
     </row>
-    <row r="146" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C146" s="46"/>
       <c r="D146" s="18"/>
       <c r="E146" s="16"/>
@@ -13146,7 +13146,7 @@
       <c r="AI146" s="27"/>
       <c r="AJ146" s="11"/>
     </row>
-    <row r="147" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C147" s="46"/>
       <c r="D147" s="18"/>
       <c r="E147" s="17"/>
@@ -13182,7 +13182,7 @@
       <c r="AI147" s="17"/>
       <c r="AJ147" s="11"/>
     </row>
-    <row r="148" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C148" s="14"/>
       <c r="D148" s="15"/>
       <c r="E148" s="17"/>
@@ -13218,7 +13218,7 @@
       <c r="AI148" s="11"/>
       <c r="AJ148" s="11"/>
     </row>
-    <row r="149" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C149" s="46"/>
       <c r="D149" s="18"/>
       <c r="E149" s="17"/>
@@ -13254,7 +13254,7 @@
       <c r="AI149" s="16"/>
       <c r="AJ149" s="11"/>
     </row>
-    <row r="150" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C150" s="45"/>
       <c r="D150" s="18"/>
       <c r="E150" s="16"/>
@@ -13290,7 +13290,7 @@
       <c r="AI150" s="11"/>
       <c r="AJ150" s="11"/>
     </row>
-    <row r="151" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C151" s="45"/>
       <c r="D151" s="15"/>
       <c r="E151" s="11"/>
@@ -13326,7 +13326,7 @@
       <c r="AI151" s="11"/>
       <c r="AJ151" s="11"/>
     </row>
-    <row r="152" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C152" s="45"/>
       <c r="D152" s="15"/>
       <c r="E152" s="11"/>
@@ -13362,7 +13362,7 @@
       <c r="AI152" s="11"/>
       <c r="AJ152" s="11"/>
     </row>
-    <row r="153" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C153" s="46"/>
       <c r="D153" s="18"/>
       <c r="E153" s="17"/>
@@ -13398,7 +13398,7 @@
       <c r="AI153" s="16"/>
       <c r="AJ153" s="11"/>
     </row>
-    <row r="154" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C154" s="14"/>
       <c r="D154" s="15"/>
       <c r="E154" s="11"/>
@@ -13434,7 +13434,7 @@
       <c r="AI154" s="11"/>
       <c r="AJ154" s="11"/>
     </row>
-    <row r="155" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C155" s="45"/>
       <c r="D155" s="18"/>
       <c r="E155" s="11"/>
@@ -13470,7 +13470,7 @@
       <c r="AI155" s="11"/>
       <c r="AJ155" s="11"/>
     </row>
-    <row r="156" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C156" s="45"/>
       <c r="D156" s="18"/>
       <c r="E156" s="11"/>
@@ -13506,7 +13506,7 @@
       <c r="AI156" s="17"/>
       <c r="AJ156" s="11"/>
     </row>
-    <row r="157" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C157" s="46"/>
       <c r="D157" s="18"/>
       <c r="E157" s="17"/>
@@ -13542,7 +13542,7 @@
       <c r="AI157" s="17"/>
       <c r="AJ157" s="11"/>
     </row>
-    <row r="158" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C158" s="46"/>
       <c r="D158" s="18"/>
       <c r="E158" s="17"/>
@@ -13578,7 +13578,7 @@
       <c r="AI158" s="11"/>
       <c r="AJ158" s="11"/>
     </row>
-    <row r="159" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C159" s="46"/>
       <c r="D159" s="18"/>
       <c r="E159" s="17"/>
@@ -13614,7 +13614,7 @@
       <c r="AI159" s="11"/>
       <c r="AJ159" s="11"/>
     </row>
-    <row r="160" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C160" s="45"/>
       <c r="D160" s="15"/>
       <c r="E160" s="16"/>
@@ -13650,7 +13650,7 @@
       <c r="AI160" s="11"/>
       <c r="AJ160" s="11"/>
     </row>
-    <row r="161" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C161" s="14"/>
       <c r="D161" s="18"/>
       <c r="E161" s="17"/>
@@ -13686,7 +13686,7 @@
       <c r="AI161" s="11"/>
       <c r="AJ161" s="11"/>
     </row>
-    <row r="162" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C162" s="45"/>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -13722,7 +13722,7 @@
       <c r="AI162" s="11"/>
       <c r="AJ162" s="11"/>
     </row>
-    <row r="163" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C163" s="46"/>
       <c r="D163" s="15"/>
       <c r="E163" s="17"/>
@@ -13758,7 +13758,7 @@
       <c r="AI163" s="17"/>
       <c r="AJ163" s="11"/>
     </row>
-    <row r="164" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C164" s="46"/>
       <c r="D164" s="18"/>
       <c r="E164" s="11"/>
@@ -13794,7 +13794,7 @@
       <c r="AI164" s="17"/>
       <c r="AJ164" s="11"/>
     </row>
-    <row r="165" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C165" s="45"/>
       <c r="D165" s="15"/>
       <c r="E165" s="11"/>
@@ -13830,7 +13830,7 @@
       <c r="AI165" s="11"/>
       <c r="AJ165" s="11"/>
     </row>
-    <row r="166" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C166" s="14"/>
       <c r="D166" s="18"/>
       <c r="E166" s="11"/>
@@ -13866,7 +13866,7 @@
       <c r="AI166" s="11"/>
       <c r="AJ166" s="11"/>
     </row>
-    <row r="167" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C167" s="46"/>
       <c r="D167" s="15"/>
       <c r="E167" s="17"/>
@@ -13902,7 +13902,7 @@
       <c r="AI167" s="17"/>
       <c r="AJ167" s="11"/>
     </row>
-    <row r="168" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C168" s="46"/>
       <c r="D168" s="18"/>
       <c r="E168" s="17"/>
@@ -13938,7 +13938,7 @@
       <c r="AI168" s="11"/>
       <c r="AJ168" s="11"/>
     </row>
-    <row r="169" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C169" s="46"/>
       <c r="D169" s="15"/>
       <c r="E169" s="17"/>
@@ -13974,7 +13974,7 @@
       <c r="AI169" s="17"/>
       <c r="AJ169" s="11"/>
     </row>
-    <row r="170" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C170" s="46"/>
       <c r="D170" s="18"/>
       <c r="E170" s="17"/>
@@ -14010,7 +14010,7 @@
       <c r="AI170" s="16"/>
       <c r="AJ170" s="11"/>
     </row>
-    <row r="171" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C171" s="45"/>
       <c r="D171" s="15"/>
       <c r="E171" s="16"/>
@@ -14046,7 +14046,7 @@
       <c r="AI171" s="11"/>
       <c r="AJ171" s="11"/>
     </row>
-    <row r="172" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C172" s="46"/>
       <c r="D172" s="15"/>
       <c r="E172" s="17"/>
@@ -14082,7 +14082,7 @@
       <c r="AI172" s="17"/>
       <c r="AJ172" s="11"/>
     </row>
-    <row r="173" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C173" s="14"/>
       <c r="D173" s="15"/>
       <c r="E173" s="11"/>
@@ -14118,7 +14118,7 @@
       <c r="AI173" s="11"/>
       <c r="AJ173" s="11"/>
     </row>
-    <row r="174" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C174" s="14"/>
       <c r="D174" s="15"/>
       <c r="E174" s="17"/>
@@ -14154,7 +14154,7 @@
       <c r="AI174" s="11"/>
       <c r="AJ174" s="11"/>
     </row>
-    <row r="175" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C175" s="45"/>
       <c r="D175" s="15"/>
       <c r="E175" s="11"/>
@@ -14190,7 +14190,7 @@
       <c r="AI175" s="11"/>
       <c r="AJ175" s="11"/>
     </row>
-    <row r="176" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C176" s="45"/>
       <c r="D176" s="15"/>
       <c r="E176" s="17"/>
@@ -14226,7 +14226,7 @@
       <c r="AI176" s="11"/>
       <c r="AJ176" s="11"/>
     </row>
-    <row r="177" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C177" s="46"/>
       <c r="D177" s="15"/>
       <c r="E177" s="17"/>
@@ -14262,7 +14262,7 @@
       <c r="AI177" s="11"/>
       <c r="AJ177" s="11"/>
     </row>
-    <row r="178" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C178" s="45"/>
       <c r="D178" s="15"/>
       <c r="E178" s="16"/>
@@ -14298,7 +14298,7 @@
       <c r="AI178" s="11"/>
       <c r="AJ178" s="11"/>
     </row>
-    <row r="179" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C179" s="46"/>
       <c r="D179" s="15"/>
       <c r="E179" s="17"/>
@@ -14334,7 +14334,7 @@
       <c r="AI179" s="16"/>
       <c r="AJ179" s="11"/>
     </row>
-    <row r="180" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C180" s="45"/>
       <c r="D180" s="15"/>
       <c r="E180" s="11"/>
@@ -14370,7 +14370,7 @@
       <c r="AI180" s="11"/>
       <c r="AJ180" s="11"/>
     </row>
-    <row r="181" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C181" s="14"/>
       <c r="D181" s="18"/>
       <c r="E181" s="17"/>
@@ -14406,7 +14406,7 @@
       <c r="AI181" s="11"/>
       <c r="AJ181" s="11"/>
     </row>
-    <row r="182" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C182" s="14"/>
       <c r="D182" s="18"/>
       <c r="E182" s="11"/>
@@ -14442,7 +14442,7 @@
       <c r="AI182" s="11"/>
       <c r="AJ182" s="11"/>
     </row>
-    <row r="183" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C183" s="46"/>
       <c r="D183" s="15"/>
       <c r="E183" s="17"/>
@@ -14478,13 +14478,13 @@
       <c r="AI183" s="17"/>
       <c r="AJ183" s="11"/>
     </row>
-    <row r="184" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C185" s="4"/>
     </row>
-    <row r="188" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -14520,7 +14520,7 @@
       <c r="AI188" s="4"/>
       <c r="AJ188" s="39"/>
     </row>
-    <row r="189" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -14557,7 +14557,7 @@
       <c r="AI189" s="4"/>
       <c r="AJ189" s="4"/>
     </row>
-    <row r="190" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -14594,7 +14594,7 @@
       <c r="AI190" s="4"/>
       <c r="AJ190" s="4"/>
     </row>
-    <row r="191" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -14631,7 +14631,7 @@
       <c r="AI191" s="4"/>
       <c r="AJ191" s="4"/>
     </row>
-    <row r="192" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -14668,7 +14668,7 @@
       <c r="AI192" s="4"/>
       <c r="AJ192" s="4"/>
     </row>
-    <row r="193" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -14705,7 +14705,7 @@
       <c r="AI193" s="4"/>
       <c r="AJ193" s="4"/>
     </row>
-    <row r="195" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -14742,10 +14742,10 @@
       <c r="AI195" s="4"/>
       <c r="AJ195" s="4"/>
     </row>
-    <row r="196" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C196" s="4"/>
     </row>
-    <row r="198" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -14782,7 +14782,7 @@
       <c r="AI198" s="4"/>
       <c r="AJ198" s="47"/>
     </row>
-    <row r="201" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -14819,7 +14819,7 @@
       <c r="AI201" s="4"/>
       <c r="AJ201" s="4"/>
     </row>
-    <row r="203" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -14856,13 +14856,13 @@
       <c r="AI203" s="4"/>
       <c r="AJ203" s="47"/>
     </row>
-    <row r="206" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C206" s="4"/>
     </row>
-    <row r="207" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C207" s="4"/>
     </row>
-    <row r="210" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -14899,7 +14899,7 @@
       <c r="AI210" s="4"/>
       <c r="AJ210" s="4"/>
     </row>
-    <row r="211" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -14936,7 +14936,7 @@
       <c r="AI211" s="4"/>
       <c r="AJ211" s="4"/>
     </row>
-    <row r="212" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -14973,7 +14973,7 @@
       <c r="AI212" s="4"/>
       <c r="AJ212" s="4"/>
     </row>
-    <row r="213" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -15010,7 +15010,7 @@
       <c r="AI213" s="4"/>
       <c r="AJ213" s="4"/>
     </row>
-    <row r="214" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -15047,10 +15047,10 @@
       <c r="AI214" s="4"/>
       <c r="AJ214" s="4"/>
     </row>
-    <row r="215" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C215" s="4"/>
     </row>
-    <row r="216" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -15087,10 +15087,10 @@
       <c r="AI216" s="4"/>
       <c r="AJ216" s="4"/>
     </row>
-    <row r="219" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C219" s="4"/>
     </row>
-    <row r="220" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -15127,7 +15127,7 @@
       <c r="AI220" s="4"/>
       <c r="AJ220" s="4"/>
     </row>
-    <row r="221" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -15164,7 +15164,7 @@
       <c r="AI221" s="4"/>
       <c r="AJ221" s="4"/>
     </row>
-    <row r="222" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -15193,7 +15193,7 @@
       <c r="AA222" s="4"/>
       <c r="AB222" s="4"/>
     </row>
-    <row r="223" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -15230,7 +15230,7 @@
       <c r="AI223" s="4"/>
       <c r="AJ223" s="4"/>
     </row>
-    <row r="224" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -15266,13 +15266,13 @@
       <c r="AI224" s="4"/>
       <c r="AJ224" s="4"/>
     </row>
-    <row r="225" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C225" s="4"/>
     </row>
-    <row r="227" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C227" s="4"/>
     </row>
-    <row r="228" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -15301,7 +15301,7 @@
       <c r="AA228" s="4"/>
       <c r="AB228" s="4"/>
     </row>
-    <row r="229" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -15338,7 +15338,7 @@
       <c r="AI229" s="4"/>
       <c r="AJ229" s="4"/>
     </row>
-    <row r="230" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -15375,13 +15375,13 @@
       <c r="AI230" s="4"/>
       <c r="AJ230" s="4"/>
     </row>
-    <row r="231" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C231" s="4"/>
     </row>
-    <row r="232" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C232" s="4"/>
     </row>
-    <row r="234" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -15418,7 +15418,7 @@
       <c r="AI234" s="4"/>
       <c r="AJ234" s="4"/>
     </row>
-    <row r="235" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -15455,10 +15455,10 @@
       <c r="AI235" s="4"/>
       <c r="AJ235" s="4"/>
     </row>
-    <row r="236" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C236" s="4"/>
     </row>
-    <row r="238" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -15495,10 +15495,10 @@
       <c r="AI238" s="4"/>
       <c r="AJ238" s="4"/>
     </row>
-    <row r="239" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:36" x14ac:dyDescent="0.3">
       <c r="C239" s="4"/>
     </row>
-    <row r="241" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -15535,7 +15535,7 @@
       <c r="AI241" s="4"/>
       <c r="AJ241" s="4"/>
     </row>
-    <row r="242" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -15572,7 +15572,7 @@
       <c r="AI242" s="4"/>
       <c r="AJ242" s="4"/>
     </row>
-    <row r="243" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -15601,7 +15601,7 @@
       <c r="AA243" s="4"/>
       <c r="AB243" s="4"/>
     </row>
-    <row r="244" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -15648,38 +15648,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>780</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>210</v>
@@ -15694,19 +15694,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(B2,"/",_xlfn.CONCAT(C2,D2))</f>
         <v>Transcripts_Anonymised/AAE_MF_011_Rosa_anon.eaf</v>
       </c>
       <c r="B2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -15726,19 +15726,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">_xlfn.CONCAT(B3,"/",_xlfn.CONCAT(C3,D3))</f>
         <v>Transcripts_Anonymised/AAE_MM_044_Xiaobo_anon.eaf</v>
       </c>
       <c r="B3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -15758,19 +15758,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_024_Liu_anon.eaf</v>
       </c>
       <c r="B4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -15790,19 +15790,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_043_Lanfen_anon.eaf</v>
       </c>
       <c r="B5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -15822,19 +15822,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_023_Valerie_anon.eaf</v>
       </c>
       <c r="B6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -15854,19 +15854,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_007_Melania_anon.eaf</v>
       </c>
       <c r="B7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -15886,19 +15886,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_027_Magdalina_anon.eaf</v>
       </c>
       <c r="B8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -15918,19 +15918,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_058_Demid_anon.eaf</v>
       </c>
       <c r="B9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -15950,19 +15950,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_032_Ingrid_anon.eaf</v>
       </c>
       <c r="B10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -15982,19 +15982,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_033_Alina_anon.eaf</v>
       </c>
       <c r="B11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -16014,19 +16014,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_021_Elena_anon.eaf</v>
       </c>
       <c r="B12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -16046,19 +16046,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_019_Rita_anon.eaf</v>
       </c>
       <c r="B13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -16078,19 +16078,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_047_Leonid_anon.eaf</v>
       </c>
       <c r="B14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -16110,19 +16110,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_004_Mila_anon.eaf</v>
       </c>
       <c r="B15" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -16142,19 +16142,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MM_050_William_anon.eaf</v>
       </c>
       <c r="B16" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -16174,19 +16174,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_046_Nadine_anon.eaf</v>
       </c>
       <c r="B17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -16206,19 +16206,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_054_Markov_anon.eaf</v>
       </c>
       <c r="B18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -16238,19 +16238,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_037_Mingzhu_anon.eaf</v>
       </c>
       <c r="B19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -16270,19 +16270,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_026_Mischa_anon.eaf</v>
       </c>
       <c r="B20" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -16302,19 +16302,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_005_Nikolai_anon.eaf</v>
       </c>
       <c r="B21" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -16334,19 +16334,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_003_Sergey_anon.eaf</v>
       </c>
       <c r="B22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -16366,19 +16366,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MM_064_Yongrui_anon.eaf</v>
       </c>
       <c r="B23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -16398,19 +16398,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MM_060_Chao_anon.eaf</v>
       </c>
       <c r="B24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -16430,19 +16430,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_030_Ivana_anon.eaf</v>
       </c>
       <c r="B25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -16462,19 +16462,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_040_Stefan_anon.eaf</v>
       </c>
       <c r="B26" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -16494,19 +16494,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_035_Malvina_anon.eaf</v>
       </c>
       <c r="B27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -16526,19 +16526,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_010_Natasha_anon.eaf</v>
       </c>
       <c r="B28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -16558,19 +16558,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MM_067_Yunru_anon.eaf</v>
       </c>
       <c r="B29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -16590,19 +16590,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_036_Liling_anon.eaf</v>
       </c>
       <c r="B30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -16622,19 +16622,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_052_Stas_anon.eaf</v>
       </c>
       <c r="B31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -16654,19 +16654,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_018_Lidia_anon.eaf</v>
       </c>
       <c r="B32" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -16686,19 +16686,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_025_Mikhaila_anon.eaf</v>
       </c>
       <c r="B33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -16718,19 +16718,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_065_Slava_anon.eaf</v>
       </c>
       <c r="B34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C34" t="s">
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -16750,19 +16750,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_028_Karina_anon.eaf</v>
       </c>
       <c r="B35" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -16782,19 +16782,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_034_Yana_anon.eaf</v>
       </c>
       <c r="B36" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -16814,19 +16814,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_049_Jennifer_anon.eaf</v>
       </c>
       <c r="B37" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -16846,19 +16846,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_038_Xiulan_anon.eaf</v>
       </c>
       <c r="B38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C38" t="s">
         <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -16878,19 +16878,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_048_Li Rong_anon.eaf</v>
       </c>
       <c r="B39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C39" t="s">
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -16910,19 +16910,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_055_Daiyu_anon.eaf</v>
       </c>
       <c r="B40" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C40" t="s">
         <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -16942,19 +16942,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_020_Victoria_anon.eaf</v>
       </c>
       <c r="B41" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -16974,19 +16974,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_059_Adrik_anon.eaf</v>
       </c>
       <c r="B42" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C42" t="s">
         <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -17006,19 +17006,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MM_013_Yin_anon.eaf</v>
       </c>
       <c r="B43" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C43" t="s">
         <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -17038,19 +17038,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_022_Mei_anon.eaf</v>
       </c>
       <c r="B44" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C44" t="s">
         <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -17070,19 +17070,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_041_Carrie_anon.eaf</v>
       </c>
       <c r="B45" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C45" t="s">
         <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -17102,19 +17102,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MM_042_Lawrence_anon.eaf</v>
       </c>
       <c r="B46" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C46" t="s">
         <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -17134,19 +17134,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_045_Yanyu_anon.eaf</v>
       </c>
       <c r="B47" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C47" t="s">
         <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -17166,19 +17166,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_012_Ruby_anon.eaf</v>
       </c>
       <c r="B48" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C48" t="s">
         <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -17198,19 +17198,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_031_Nikola_anon.eaf</v>
       </c>
       <c r="B49" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C49" t="s">
         <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -17230,19 +17230,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MM_063_Shirong_anon.eaf</v>
       </c>
       <c r="B50" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C50" t="s">
         <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -17262,19 +17262,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_051_Anton_anon.eaf</v>
       </c>
       <c r="B51" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C51" t="s">
         <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -17294,19 +17294,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_053_Jia_anon.eaf</v>
       </c>
       <c r="B52" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C52" t="s">
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -17326,19 +17326,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_061_Suyin_anon.eaf</v>
       </c>
       <c r="B53" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C53" t="s">
         <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
@@ -17358,19 +17358,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_057_Stepan_anon.eaf</v>
       </c>
       <c r="B54" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C54" t="s">
         <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
@@ -17390,19 +17390,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MM_066_Bolin_anon.eaf</v>
       </c>
       <c r="B55" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C55" t="s">
         <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -17422,19 +17422,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RM_056_Andrei_anon.eaf</v>
       </c>
       <c r="B56" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C56" t="s">
         <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -17454,19 +17454,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_014_Yvonne_anon.eaf</v>
       </c>
       <c r="B57" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C57" t="s">
         <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -17486,19 +17486,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MM_016_Carl_anon.eaf</v>
       </c>
       <c r="B58" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C58" t="s">
         <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -17518,19 +17518,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_008_Kelsey_anon.eaf</v>
       </c>
       <c r="B59" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C59" t="s">
         <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -17550,19 +17550,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MM_015_Colin_anon.eaf</v>
       </c>
       <c r="B60" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C60" t="s">
         <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -17582,19 +17582,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_017_Alenka_anon.eaf</v>
       </c>
       <c r="B61" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -17614,19 +17614,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_RF_001_Anastasia_anon.eaf</v>
       </c>
       <c r="B62" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C62" t="s">
         <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -17646,19 +17646,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_002_Stella_anon.eaf</v>
       </c>
       <c r="B63" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C63" t="s">
         <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -17678,19 +17678,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_006_Tanya_anon.eaf</v>
       </c>
       <c r="B64" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C64" t="s">
         <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -17710,19 +17710,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_009_Joyce_anon.eaf</v>
       </c>
       <c r="B65" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C65" t="s">
         <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -17742,19 +17742,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>Transcripts_Anonymised/AAE_MF_029_Ning_anon.eaf</v>
       </c>
       <c r="B66" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C66" t="s">
         <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -17774,19 +17774,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A68" si="3">_xlfn.CONCAT(B67,"/",_xlfn.CONCAT(C67,D67))</f>
         <v>Transcripts_Anonymised/AAE_MM_039_Bojing_anon.eaf</v>
       </c>
       <c r="B67" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C67" t="s">
         <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -17806,19 +17806,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="3"/>
         <v>Transcripts_Anonymised/AAE_MM_062_Hao_anon.eaf</v>
       </c>
       <c r="B68" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C68" t="s">
         <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -17847,14 +17847,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
@@ -17862,21 +17862,21 @@
     <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>780</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>210</v>
@@ -17888,19 +17888,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(B2,"/",_xlfn.CONCAT(C2,D2))</f>
         <v>Audio_Anonymised/AAE_MF_011_Rosa_anon.wav</v>
       </c>
       <c r="B2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -17917,19 +17917,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">_xlfn.CONCAT(B3,"/",_xlfn.CONCAT(C3,D3))</f>
         <v>Audio_Anonymised/AAE_MM_044_Xiaobo_anon.wav</v>
       </c>
       <c r="B3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -17946,19 +17946,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_024_Liu_anon.wav</v>
       </c>
       <c r="B4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -17975,19 +17975,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_043_Lanfen_anon.wav</v>
       </c>
       <c r="B5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -18004,19 +18004,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_023_Valerie_anon.wav</v>
       </c>
       <c r="B6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -18033,19 +18033,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_007_Melania_anon.wav</v>
       </c>
       <c r="B7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -18062,19 +18062,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_027_Magdalina_anon.wav</v>
       </c>
       <c r="B8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -18091,19 +18091,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_058_Demid_anon.wav</v>
       </c>
       <c r="B9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -18120,19 +18120,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_032_Ingrid_anon.wav</v>
       </c>
       <c r="B10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -18149,19 +18149,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_033_Alina_anon.wav</v>
       </c>
       <c r="B11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -18178,19 +18178,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_021_Elena_anon.wav</v>
       </c>
       <c r="B12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -18207,19 +18207,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_019_Rita_anon.wav</v>
       </c>
       <c r="B13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -18236,19 +18236,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_047_Leonid_anon.wav</v>
       </c>
       <c r="B14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -18265,19 +18265,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_004_Mila_anon.wav</v>
       </c>
       <c r="B15" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -18294,19 +18294,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MM_050_William_anon.wav</v>
       </c>
       <c r="B16" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -18323,19 +18323,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_046_Nadine_anon.wav</v>
       </c>
       <c r="B17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -18352,19 +18352,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_054_Markov_anon.wav</v>
       </c>
       <c r="B18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -18381,19 +18381,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_037_Mingzhu_anon.wav</v>
       </c>
       <c r="B19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -18410,19 +18410,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_026_Mischa_anon.wav</v>
       </c>
       <c r="B20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -18439,19 +18439,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_005_Nikolai_anon.wav</v>
       </c>
       <c r="B21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -18468,19 +18468,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_003_Sergey_anon.wav</v>
       </c>
       <c r="B22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -18497,19 +18497,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MM_064_Yongrui_anon.wav</v>
       </c>
       <c r="B23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -18526,19 +18526,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MM_060_Chao_anon.wav</v>
       </c>
       <c r="B24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -18555,19 +18555,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_030_Ivana_anon.wav</v>
       </c>
       <c r="B25" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -18584,19 +18584,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_040_Stefan_anon.wav</v>
       </c>
       <c r="B26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -18613,19 +18613,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_035_Malvina_anon.wav</v>
       </c>
       <c r="B27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -18642,19 +18642,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_010_Natasha_anon.wav</v>
       </c>
       <c r="B28" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -18671,19 +18671,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MM_067_Yunru_anon.wav</v>
       </c>
       <c r="B29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -18700,19 +18700,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_036_Liling_anon.wav</v>
       </c>
       <c r="B30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C30" t="s">
         <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -18729,19 +18729,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_052_Stas_anon.wav</v>
       </c>
       <c r="B31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -18758,19 +18758,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_018_Lidia_anon.wav</v>
       </c>
       <c r="B32" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -18787,19 +18787,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_025_Mikhaila_anon.wav</v>
       </c>
       <c r="B33" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -18816,19 +18816,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_065_Slava_anon.wav</v>
       </c>
       <c r="B34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C34" t="s">
         <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -18845,19 +18845,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_028_Karina_anon.wav</v>
       </c>
       <c r="B35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -18874,19 +18874,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_034_Yana_anon.wav</v>
       </c>
       <c r="B36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -18903,19 +18903,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_049_Jennifer_anon.wav</v>
       </c>
       <c r="B37" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -18932,19 +18932,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_038_Xiulan_anon.wav</v>
       </c>
       <c r="B38" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C38" t="s">
         <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -18961,19 +18961,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_048_Li Rong_anon.wav</v>
       </c>
       <c r="B39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C39" t="s">
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -18990,19 +18990,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_055_Daiyu_anon.wav</v>
       </c>
       <c r="B40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C40" t="s">
         <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -19019,19 +19019,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_020_Victoria_anon.wav</v>
       </c>
       <c r="B41" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C41" t="s">
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -19048,19 +19048,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_059_Adrik_anon.wav</v>
       </c>
       <c r="B42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C42" t="s">
         <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -19077,19 +19077,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MM_013_Yin_anon.wav</v>
       </c>
       <c r="B43" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C43" t="s">
         <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -19106,19 +19106,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_022_Mei_anon.wav</v>
       </c>
       <c r="B44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C44" t="s">
         <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -19135,19 +19135,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_041_Carrie_anon.wav</v>
       </c>
       <c r="B45" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C45" t="s">
         <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -19164,19 +19164,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MM_042_Lawrence_anon.wav</v>
       </c>
       <c r="B46" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C46" t="s">
         <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -19193,19 +19193,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_045_Yanyu_anon.wav</v>
       </c>
       <c r="B47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C47" t="s">
         <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -19222,19 +19222,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_012_Ruby_anon.wav</v>
       </c>
       <c r="B48" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C48" t="s">
         <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -19251,19 +19251,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_031_Nikola_anon.wav</v>
       </c>
       <c r="B49" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C49" t="s">
         <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -19280,19 +19280,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MM_063_Shirong_anon.wav</v>
       </c>
       <c r="B50" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C50" t="s">
         <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -19309,19 +19309,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_051_Anton_anon.wav</v>
       </c>
       <c r="B51" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C51" t="s">
         <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -19338,19 +19338,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_053_Jia_anon.wav</v>
       </c>
       <c r="B52" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C52" t="s">
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -19367,19 +19367,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_061_Suyin_anon.wav</v>
       </c>
       <c r="B53" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C53" t="s">
         <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
@@ -19396,19 +19396,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_057_Stepan_anon.wav</v>
       </c>
       <c r="B54" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C54" t="s">
         <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
@@ -19425,19 +19425,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MM_066_Bolin_anon.wav</v>
       </c>
       <c r="B55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C55" t="s">
         <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -19454,19 +19454,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RM_056_Andrei_anon.wav</v>
       </c>
       <c r="B56" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C56" t="s">
         <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -19483,19 +19483,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_014_Yvonne_anon.wav</v>
       </c>
       <c r="B57" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C57" t="s">
         <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -19512,19 +19512,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MM_016_Carl_anon.wav</v>
       </c>
       <c r="B58" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C58" t="s">
         <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -19541,19 +19541,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_008_Kelsey_anon.wav</v>
       </c>
       <c r="B59" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C59" t="s">
         <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -19570,19 +19570,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MM_015_Colin_anon.wav</v>
       </c>
       <c r="B60" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C60" t="s">
         <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -19599,19 +19599,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_017_Alenka_anon.wav</v>
       </c>
       <c r="B61" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C61" t="s">
         <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -19628,19 +19628,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_RF_001_Anastasia_anon.wav</v>
       </c>
       <c r="B62" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C62" t="s">
         <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -19657,19 +19657,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_002_Stella_anon.wav</v>
       </c>
       <c r="B63" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C63" t="s">
         <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -19686,19 +19686,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_006_Tanya_anon.wav</v>
       </c>
       <c r="B64" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C64" t="s">
         <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -19715,19 +19715,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_009_Joyce_anon.wav</v>
       </c>
       <c r="B65" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C65" t="s">
         <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -19744,19 +19744,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>Audio_Anonymised/AAE_MF_029_Ning_anon.wav</v>
       </c>
       <c r="B66" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C66" t="s">
         <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -19773,19 +19773,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A68" si="3">_xlfn.CONCAT(B67,"/",_xlfn.CONCAT(C67,D67))</f>
         <v>Audio_Anonymised/AAE_MM_039_Bojing_anon.wav</v>
       </c>
       <c r="B67" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C67" t="s">
         <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -19802,19 +19802,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="3"/>
         <v>Audio_Anonymised/AAE_MM_062_Hao_anon.wav</v>
       </c>
       <c r="B68" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C68" t="s">
         <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -19844,36 +19844,36 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G1" s="50" t="s">
         <v>2</v>
@@ -19882,7 +19882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT("#",B2)</f>
         <v>#AAE_MF_011_Rosa</v>
@@ -19910,7 +19910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">_xlfn.CONCAT("#",B3)</f>
         <v>#AAE_MM_044_Xiaobo</v>
@@ -19938,7 +19938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_024_Liu</v>
@@ -19966,7 +19966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_043_Lanfen</v>
@@ -19994,7 +19994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_023_Valerie</v>
@@ -20022,7 +20022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_007_Melania</v>
@@ -20050,7 +20050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_027_Magdalina</v>
@@ -20078,7 +20078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_058_Demid</v>
@@ -20106,7 +20106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_032_Ingrid</v>
@@ -20134,7 +20134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_033_Alina</v>
@@ -20162,7 +20162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_021_Elena</v>
@@ -20190,7 +20190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_019_Rita</v>
@@ -20218,7 +20218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_047_Leonid</v>
@@ -20246,7 +20246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_004_Mila</v>
@@ -20274,7 +20274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MM_050_William</v>
@@ -20302,7 +20302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_046_Nadine</v>
@@ -20330,7 +20330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_054_Markov</v>
@@ -20358,7 +20358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_037_Mingzhu</v>
@@ -20386,7 +20386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_026_Mischa</v>
@@ -20414,7 +20414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_005_Nikolai</v>
@@ -20442,7 +20442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_003_Sergey</v>
@@ -20470,7 +20470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MM_064_Yongrui</v>
@@ -20498,7 +20498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MM_060_Chao</v>
@@ -20526,7 +20526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_030_Ivana</v>
@@ -20554,7 +20554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_040_Stefan</v>
@@ -20582,7 +20582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_035_Malvina</v>
@@ -20610,7 +20610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_010_Natasha</v>
@@ -20638,7 +20638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MM_067_Yunru</v>
@@ -20666,7 +20666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_036_Liling</v>
@@ -20694,7 +20694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_052_Stas</v>
@@ -20722,7 +20722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_018_Lidia</v>
@@ -20750,7 +20750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_025_Mikhaila</v>
@@ -20778,7 +20778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_065_Slava</v>
@@ -20806,7 +20806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_028_Karina</v>
@@ -20834,7 +20834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_034_Yana</v>
@@ -20862,7 +20862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_049_Jennifer</v>
@@ -20890,7 +20890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_038_Xiulan</v>
@@ -20918,7 +20918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_048_Li Rong</v>
@@ -20946,7 +20946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_055_Daiyu</v>
@@ -20974,7 +20974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_020_Victoria</v>
@@ -21002,7 +21002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_059_Adrik</v>
@@ -21030,7 +21030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MM_013_Yin</v>
@@ -21058,7 +21058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_022_Mei</v>
@@ -21086,7 +21086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_041_Carrie</v>
@@ -21114,7 +21114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MM_042_Lawrence</v>
@@ -21142,7 +21142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_045_Yanyu</v>
@@ -21170,7 +21170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_012_Ruby</v>
@@ -21198,7 +21198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_031_Nikola</v>
@@ -21226,7 +21226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MM_063_Shirong</v>
@@ -21254,7 +21254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_051_Anton</v>
@@ -21282,7 +21282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_053_Jia</v>
@@ -21310,7 +21310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_061_Suyin</v>
@@ -21338,7 +21338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_057_Stepan</v>
@@ -21366,7 +21366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MM_066_Bolin</v>
@@ -21394,7 +21394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RM_056_Andrei</v>
@@ -21422,7 +21422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_014_Yvonne</v>
@@ -21450,7 +21450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MM_016_Carl</v>
@@ -21478,7 +21478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_008_Kelsey</v>
@@ -21506,7 +21506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MM_015_Colin</v>
@@ -21534,7 +21534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_017_Alenka</v>
@@ -21562,7 +21562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_RF_001_Anastasia</v>
@@ -21590,7 +21590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_002_Stella</v>
@@ -21618,7 +21618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_006_Tanya</v>
@@ -21646,7 +21646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_009_Joyce</v>
@@ -21674,7 +21674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>#AAE_MF_029_Ning</v>
@@ -21702,7 +21702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A68" si="2">_xlfn.CONCAT("#",B67)</f>
         <v>#AAE_MM_039_Bojing</v>
@@ -21730,7 +21730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>#AAE_MM_062_Hao</v>
